--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\1\my project\Data-Analysis-and-Visualizations-on-Shark-Tank-US-dataset-using-SQL-and-PowerBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -46,12 +46,15 @@
   <si>
     <t>Alao</t>
   </si>
+  <si>
+    <t>olaitan.ola@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +66,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,10 +156,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -158,8 +170,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,15 +474,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F5:P18"/>
+  <dimension ref="B5:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>0</v>
       </c>
@@ -488,7 +505,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>FIND(".", D10, FIND(".", D10)+1)</f>
+        <v>18</v>
+      </c>
       <c r="F6" t="s">
         <v>2</v>
       </c>
@@ -508,7 +529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>3</v>
       </c>
@@ -528,7 +549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>4</v>
       </c>
@@ -548,7 +569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>5</v>
       </c>
@@ -568,7 +589,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D10" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>0</v>
       </c>
@@ -576,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>2</v>
       </c>
@@ -584,7 +610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
         <v>3</v>
       </c>
@@ -609,10 +635,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="B5:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +510,10 @@
         <f>FIND(".", D10, FIND(".", D10)+1)</f>
         <v>18</v>
       </c>
+      <c r="D6">
+        <f>FIND("@",D10)</f>
+        <v>12</v>
+      </c>
       <c r="F6" t="s">
         <v>2</v>
       </c>
@@ -595,6 +599,10 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f>MID(D10, FIND("@",D10)+1, L16)</f>
+        <v/>
+      </c>
       <c r="H14" t="s">
         <v>0</v>
       </c>
